--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,18 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16507" windowHeight="9517" activeTab="1"/>
+    <workbookView windowHeight="17175" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Router" sheetId="3" r:id="rId2"/>
+    <sheet name="公共服" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -56,6 +70,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>Realm</t>
   </si>
   <si>
@@ -99,12 +116,15 @@
   </si>
   <si>
     <t>Router04</t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -120,13 +140,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -733,18 +753,18 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1094,213 +1114,216 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H12"/>
+  <dimension ref="B3:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
+    <row r="6" s="3" customFormat="1" spans="2:8">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2">
         <v>30002</v>
       </c>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5">
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2">
         <v>30003</v>
       </c>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2">
         <v>30004</v>
       </c>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="5"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="5"/>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>7</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="5"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1314,177 +1337,177 @@
   <sheetPr/>
   <dimension ref="C3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.3716814159292" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1238938053097" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:8">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:8">
-      <c r="C6" s="5">
+    <row r="6" s="3" customFormat="1" spans="3:8">
+      <c r="C6" s="2">
         <v>300</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2">
         <v>30300</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:8">
-      <c r="C7" s="5">
+    <row r="7" s="3" customFormat="1" spans="3:8">
+      <c r="C7" s="2">
         <v>301</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="5">
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2">
         <v>30301</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:8">
-      <c r="C8" s="5">
+    <row r="8" s="3" customFormat="1" spans="3:8">
+      <c r="C8" s="2">
         <v>302</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2">
         <v>30302</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:8">
-      <c r="C9" s="5">
+    <row r="9" s="3" customFormat="1" spans="3:8">
+      <c r="C9" s="2">
         <v>303</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2">
         <v>30303</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:8">
-      <c r="C10" s="5">
+    <row r="10" s="3" customFormat="1" spans="3:8">
+      <c r="C10" s="2">
         <v>304</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2">
         <v>30304</v>
       </c>
     </row>
@@ -1493,4 +1516,147 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="6" max="6" width="27.2" customWidth="1"/>
+    <col min="7" max="7" width="40.2833333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="14.25" spans="3:8">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="3:8">
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="3:8">
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="3:8">
+      <c r="C6" s="2">
+        <v>401</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="14.25" spans="3:8">
+      <c r="C7" s="2">
+        <v>402</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="3:8">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" ht="14.25" spans="3:8">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" ht="14.25" spans="3:8">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>